--- a/prix/prix1.xlsx
+++ b/prix/prix1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\produits-cimentaires\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F49BC-A3BB-41F6-AA9C-C8C954BCEBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C737F6-4371-4C92-B3E0-52E638ACDE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="354">
   <si>
     <t>path</t>
   </si>
@@ -998,9 +998,6 @@
     <t>colles-et-joints-carrelages/mapei-keraflex-gris-5kg.png</t>
   </si>
   <si>
-    <t>colles-et-joints-carrelages/mapei-ultracolor-plus.png</t>
-  </si>
-  <si>
     <t>colles-et-joints-carrelages/mapei-ultracolor-plus-2kg.png</t>
   </si>
   <si>
@@ -1008,6 +1005,99 @@
   </si>
   <si>
     <t>Mapei Ultracolor 113- 23kg</t>
+  </si>
+  <si>
+    <t>colles-et-joints-carrelages/mapei-ultracolor-plus-5kg.png</t>
+  </si>
+  <si>
+    <t>colles-et-joints-carrelages/mapi-ultramastic.png</t>
+  </si>
+  <si>
+    <t>colles-et-joints-carrelages/sakret-euroflex-25kg.png</t>
+  </si>
+  <si>
+    <t>colles-et-joints-carrelages/steinfuge-sf50.png</t>
+  </si>
+  <si>
+    <t>colles-et-joints-carrelages/weber-joint-pro-blanc.png</t>
+  </si>
+  <si>
+    <t>enduits-de-cimentage/mapei-planiseal-88.png</t>
+  </si>
+  <si>
+    <t>enduits-de-cimentage/sakret-kam-25kg.png</t>
+  </si>
+  <si>
+    <t>enduits-de-cimentage/sakret-kam-san-25kg.png</t>
+  </si>
+  <si>
+    <t>enduits-de-cimentage/sakret-map-25kg.png</t>
+  </si>
+  <si>
+    <t>enduits-de-cimentage/sakret-map-e-25kg.png</t>
+  </si>
+  <si>
+    <t>enduits-de-cimentage/sakret-map-l-25kg.png</t>
+  </si>
+  <si>
+    <t>enduits-de-cimentage/toupret-egaliss-facade.png</t>
+  </si>
+  <si>
+    <t>mortiers/knauf-mortier-5kg.png</t>
+  </si>
+  <si>
+    <t>mortiers/knauf-mortier-refractaire.png</t>
+  </si>
+  <si>
+    <t>mortiers/sakret-mortier-zm-25kg.png</t>
+  </si>
+  <si>
+    <t>primers/drago-paint-beton-tack.png</t>
+  </si>
+  <si>
+    <t>primers/drago-paint-gips-primer.png</t>
+  </si>
+  <si>
+    <t>primers/knauf-betokontakt.png</t>
+  </si>
+  <si>
+    <t>primers/knauf-stuc-primer.png</t>
+  </si>
+  <si>
+    <t>primers/mapei-ecoprim-grip-plus.png</t>
+  </si>
+  <si>
+    <t>primers/mapei-mapegum-wps.png</t>
+  </si>
+  <si>
+    <t>primers/mapei-primer-g.png</t>
+  </si>
+  <si>
+    <t>reparation/knauf-reno-beton.png</t>
+  </si>
+  <si>
+    <t>reparation/toupret-fibarex.png</t>
+  </si>
+  <si>
+    <t>reparation/toupret-granirex.png</t>
+  </si>
+  <si>
+    <t>reparation/toupret-touprelex.png</t>
+  </si>
+  <si>
+    <t>sols/diamur-stabilisé-25kg.png</t>
+  </si>
+  <si>
+    <t>sols/diamur-chape-25kg.png</t>
+  </si>
+  <si>
+    <t>sols/egaline-weberniv-fiber.png</t>
+  </si>
+  <si>
+    <t>betons/sakret-fix-beton-25kg.png</t>
+  </si>
+  <si>
+    <t>mortiers/melange-mortier.png</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,6 +1198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1121,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1200,6 +1296,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1538,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,7 +1674,9 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1694,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1734,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1754,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
@@ -1667,7 +1774,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
@@ -1705,7 +1814,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="23" t="s">
         <v>45</v>
       </c>
@@ -1720,7 +1829,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="23" t="s">
         <v>46</v>
       </c>
@@ -1755,7 +1864,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="23" t="s">
         <v>48</v>
       </c>
@@ -1770,7 +1879,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="B13" s="22" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +1939,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="B16" s="22" t="s">
         <v>52</v>
       </c>
@@ -1846,7 +1959,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="B17" s="22" t="s">
         <v>53</v>
       </c>
@@ -1864,7 +1979,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="23" t="s">
         <v>54</v>
       </c>
@@ -1880,7 +1995,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
@@ -1896,7 +2011,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="23" t="s">
         <v>56</v>
       </c>
@@ -1912,7 +2027,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="23" t="s">
         <v>57</v>
       </c>
@@ -1928,7 +2043,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="23" t="s">
         <v>58</v>
       </c>
@@ -1944,7 +2059,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="22" t="s">
         <v>59</v>
       </c>
@@ -1960,7 +2075,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="B24" s="22" t="s">
         <v>60</v>
       </c>
@@ -1978,7 +2095,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="B25" s="22" t="s">
         <v>61</v>
       </c>
@@ -1996,7 +2115,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="B26" s="22" t="s">
         <v>62</v>
       </c>
@@ -2014,7 +2135,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="23" t="s">
         <v>63</v>
       </c>
@@ -2030,7 +2151,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="23" t="s">
         <v>64</v>
       </c>
@@ -2046,7 +2167,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="22" t="s">
         <v>65</v>
       </c>
@@ -2062,7 +2183,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="23" t="s">
         <v>66</v>
       </c>
@@ -2078,7 +2199,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="B31" s="22" t="s">
         <v>67</v>
       </c>
@@ -2096,7 +2219,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="23" t="s">
         <v>68</v>
       </c>
@@ -2112,7 +2235,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="B33" s="22" t="s">
         <v>69</v>
       </c>
@@ -2130,7 +2255,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="B34" s="16" t="s">
         <v>175</v>
       </c>
@@ -2148,6 +2275,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="B35" s="16" t="s">
         <v>176</v>
       </c>
@@ -2185,7 +2315,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="B37" s="16" t="s">
         <v>178</v>
       </c>
@@ -2203,7 +2335,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="B38" s="16" t="s">
         <v>179</v>
       </c>
@@ -2221,7 +2355,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B39" s="16" t="s">
         <v>180</v>
       </c>
@@ -2239,7 +2375,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="B40" s="9" t="s">
         <v>181</v>
       </c>
@@ -2277,7 +2415,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B42" s="10" t="s">
         <v>183</v>
       </c>
@@ -2295,7 +2435,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="B43" s="10" t="s">
         <v>184</v>
       </c>
@@ -2313,7 +2455,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="B44" s="10" t="s">
         <v>185</v>
       </c>
@@ -2331,7 +2475,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="B45" s="10" t="s">
         <v>186</v>
       </c>
@@ -2349,7 +2495,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="10" t="s">
         <v>187</v>
       </c>
@@ -2367,7 +2513,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="10" t="s">
         <v>188</v>
       </c>
@@ -2385,7 +2531,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="B48" s="10" t="s">
         <v>189</v>
       </c>
@@ -2403,7 +2551,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="B49" s="10" t="s">
         <v>190</v>
       </c>
@@ -2421,7 +2571,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="14" t="s">
         <v>191</v>
       </c>
@@ -2437,7 +2587,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="14" t="s">
         <v>192</v>
       </c>
@@ -2453,7 +2603,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="14" t="s">
         <v>193</v>
       </c>
@@ -2469,7 +2619,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="10" t="s">
         <v>194</v>
       </c>
@@ -2487,7 +2637,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="10" t="s">
         <v>195</v>
       </c>
@@ -2505,7 +2655,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="10" t="s">
         <v>196</v>
       </c>
@@ -2523,7 +2673,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="10" t="s">
         <v>197</v>
       </c>
@@ -2541,7 +2691,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="14" t="s">
         <v>198</v>
       </c>
@@ -2557,7 +2707,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="14" t="s">
         <v>199</v>
       </c>
@@ -2573,7 +2723,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="14" t="s">
         <v>200</v>
       </c>
@@ -2589,7 +2739,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="B60" s="10" t="s">
         <v>201</v>
       </c>
@@ -2607,7 +2759,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="B61" s="10" t="s">
         <v>202</v>
       </c>
@@ -2625,7 +2779,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="B62" s="10" t="s">
         <v>203</v>
       </c>
@@ -2643,7 +2799,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="B63" s="10" t="s">
         <v>204</v>
       </c>
@@ -2661,7 +2819,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="B64" s="9" t="s">
         <v>205</v>
       </c>
@@ -2679,7 +2839,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="B65" s="9" t="s">
         <v>206</v>
       </c>
@@ -2714,7 +2876,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>207</v>
@@ -2734,7 +2896,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>208</v>
@@ -2754,7 +2916,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>209</v>
@@ -2774,7 +2936,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>210</v>
@@ -2794,7 +2956,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>211</v>
@@ -2814,7 +2976,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>212</v>
@@ -2834,7 +2996,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>213</v>
@@ -2854,7 +3016,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>214</v>
@@ -2874,7 +3036,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>215</v>
@@ -2894,7 +3056,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>216</v>
@@ -2914,7 +3076,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>217</v>
@@ -2934,7 +3096,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>218</v>
@@ -2954,7 +3116,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>219</v>
@@ -2974,7 +3136,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>220</v>
@@ -2994,7 +3156,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>221</v>
@@ -3014,7 +3176,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>222</v>
@@ -3034,7 +3196,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>223</v>
@@ -3054,7 +3216,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>224</v>
@@ -3074,7 +3236,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>225</v>
@@ -3094,7 +3256,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>226</v>
@@ -3112,7 +3274,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>227</v>
@@ -3132,10 +3294,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>293</v>
@@ -3151,7 +3313,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="B89" s="9" t="s">
         <v>228</v>
       </c>
@@ -3169,7 +3333,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+      <c r="A90" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="B90" s="9" t="s">
         <v>229</v>
       </c>
@@ -3187,7 +3353,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="B91" s="9" t="s">
         <v>230</v>
       </c>
@@ -3205,7 +3373,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+      <c r="A92" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="B92" s="9" t="s">
         <v>231</v>
       </c>
@@ -3303,7 +3473,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
+      <c r="A97" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="B97" s="9" t="s">
         <v>236</v>
       </c>
@@ -3321,7 +3493,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
+      <c r="A98" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="B98" s="9" t="s">
         <v>237</v>
       </c>
@@ -3339,7 +3513,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="B99" s="9" t="s">
         <v>238</v>
       </c>
@@ -3357,7 +3533,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="28"/>
       <c r="B100" s="13" t="s">
         <v>239</v>
       </c>
@@ -3373,7 +3549,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="B101" s="9" t="s">
         <v>240</v>
       </c>
@@ -3391,7 +3569,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="13" t="s">
         <v>241</v>
       </c>
@@ -3407,7 +3585,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="B103" s="9" t="s">
         <v>242</v>
       </c>
@@ -3601,7 +3781,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="B114" s="9" t="s">
         <v>253</v>
       </c>
@@ -3619,7 +3801,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="B115" s="9" t="s">
         <v>254</v>
       </c>
@@ -3655,7 +3839,9 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
+      <c r="A117" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="B117" s="9" t="s">
         <v>256</v>
       </c>
@@ -3673,7 +3859,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+      <c r="A118" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="B118" s="9" t="s">
         <v>257</v>
       </c>
@@ -3991,7 +4179,9 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
+      <c r="A136" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="B136" s="9" t="s">
         <v>275</v>
       </c>
@@ -4009,7 +4199,9 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
+      <c r="A137" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="B137" s="9" t="s">
         <v>276</v>
       </c>
@@ -4027,7 +4219,9 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
+      <c r="A138" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="B138" s="9" t="s">
         <v>277</v>
       </c>

--- a/prix/prix1.xlsx
+++ b/prix/prix1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\produits-cimentaires\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C737F6-4371-4C92-B3E0-52E638ACDE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B2D1DA-CA88-4FD8-8726-290E3D99DA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="364">
   <si>
     <t>path</t>
   </si>
@@ -1098,6 +1098,36 @@
   </si>
   <si>
     <t>mortiers/melange-mortier.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36185626   </t>
+  </si>
+  <si>
+    <t>Soudalatex DRY -5lt (Hydrofuge)</t>
+  </si>
+  <si>
+    <t>36185647</t>
+  </si>
+  <si>
+    <t>36176037</t>
+  </si>
+  <si>
+    <t>Weberad mics air 1lt</t>
+  </si>
+  <si>
+    <t>Soudaplast MZ -5l</t>
+  </si>
+  <si>
+    <t>adjuvants/soudaplast-mz.png</t>
+  </si>
+  <si>
+    <t>adjuvants/soudalatex-dry.png</t>
+  </si>
+  <si>
+    <t>adjuvants/weberad-mics-air-1l.png</t>
+  </si>
+  <si>
+    <t>adjuvants/weberad-superbond.png</t>
   </si>
 </sst>
 </file>
@@ -1637,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2396,7 +2426,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>182</v>
@@ -4279,28 +4309,64 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="5"/>
+      <c r="A141" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D141" s="5">
+        <v>17.16</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="F141" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="5"/>
+      <c r="A142" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D142" s="5">
+        <v>29.35</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F142" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="5"/>
+      <c r="A143" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D143" s="5">
+        <v>6.01</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="F143" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
